--- a/Bangladesh_DummyData.xlsx
+++ b/Bangladesh_DummyData.xlsx
@@ -328,7 +328,8 @@
     <t xml:space="preserve">Rice (1 plate), Small fish</t>
   </si>
   <si>
-    <t xml:space="preserve">doom fry </t>
+    <t xml:space="preserve">doom fry, chicken cury (1 wdiopcs)
+</t>
   </si>
   <si>
     <t xml:space="preserve">Light snacks (evening)</t>
@@ -505,7 +506,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -628,6 +629,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -650,10 +655,10 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="68.91"/>
   </cols>
@@ -1838,7 +1843,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29"/>
       <c r="B17" s="29" t="s">
         <v>22</v>
@@ -1847,7 +1852,7 @@
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="31" t="s">
         <v>102</v>
       </c>
       <c r="H17" s="25"/>
